--- a/02_設計/06_クラス図/クラス図_SO-003.xlsx
+++ b/02_設計/06_クラス図/クラス図_SO-003.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7552953A-AD6B-4A83-87CA-8E3211AC791F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6298EE-8471-447A-BA62-79D1CA399D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23775" yWindow="1965" windowWidth="28800" windowHeight="14655" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="6" r:id="rId1"/>
@@ -16,23 +16,14 @@
     <sheet name="Sheet2" sheetId="5" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">クラス図!$A$1:$AQ$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">クラス図!$A$1:$AQ$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">クラス図_20210925_bk!$A$1:$AQ$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$M$24</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -711,6 +702,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
@@ -774,14 +774,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -800,15 +800,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -855,8 +846,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2362200" y="1190625"/>
-          <a:ext cx="2133600" cy="1019175"/>
+          <a:off x="2335530" y="1144905"/>
+          <a:ext cx="2110740" cy="971550"/>
           <a:chOff x="2609850" y="1162050"/>
           <a:chExt cx="2133600" cy="971550"/>
         </a:xfrm>
@@ -1032,7 +1023,7 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>86139</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1047,10 +1038,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2837191" y="3552826"/>
-          <a:ext cx="3068309" cy="1533524"/>
+          <a:off x="2806711" y="3409951"/>
+          <a:ext cx="3030209" cy="1514888"/>
           <a:chOff x="2609850" y="1162050"/>
-          <a:chExt cx="2133600" cy="631142"/>
+          <a:chExt cx="2133600" cy="651490"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -1067,7 +1058,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="2609850" y="1162050"/>
-            <a:ext cx="2133600" cy="631142"/>
+            <a:ext cx="2133600" cy="651490"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1386,8 +1377,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11416754" y="3854616"/>
-          <a:ext cx="1201704" cy="693256"/>
+          <a:off x="11283404" y="3694596"/>
+          <a:ext cx="1190274" cy="672301"/>
           <a:chOff x="2609850" y="1162050"/>
           <a:chExt cx="2133600" cy="971550"/>
         </a:xfrm>
@@ -1567,8 +1558,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="748553" y="2923194"/>
-          <a:ext cx="1563640" cy="1012873"/>
+          <a:off x="740933" y="2799369"/>
+          <a:ext cx="1544590" cy="974773"/>
           <a:chOff x="2609850" y="1162050"/>
           <a:chExt cx="2133600" cy="496799"/>
         </a:xfrm>
@@ -1775,8 +1766,8 @@
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>144946</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1791,8 +1782,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8348596" y="3809409"/>
-          <a:ext cx="1776479" cy="907537"/>
+          <a:off x="8253346" y="3657009"/>
+          <a:ext cx="1753619" cy="1014051"/>
           <a:chOff x="2609850" y="1162050"/>
           <a:chExt cx="2133600" cy="444955"/>
         </a:xfrm>
@@ -1998,14 +1989,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>132520</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2020,10 +2011,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2628901" y="7534276"/>
-          <a:ext cx="2371724" cy="1638300"/>
+          <a:off x="2598421" y="6772275"/>
+          <a:ext cx="2345054" cy="1627945"/>
           <a:chOff x="2609850" y="1162050"/>
-          <a:chExt cx="2133600" cy="572991"/>
+          <a:chExt cx="2133600" cy="593226"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -2040,7 +2031,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="2609850" y="1162050"/>
-            <a:ext cx="2133600" cy="572991"/>
+            <a:ext cx="2133600" cy="593226"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2308,14 +2299,14 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>127554</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>218950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2330,8 +2321,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6280704" y="8124700"/>
-          <a:ext cx="1977471" cy="1162174"/>
+          <a:off x="6208314" y="7343650"/>
+          <a:ext cx="1954611" cy="1198370"/>
           <a:chOff x="2609850" y="1162050"/>
           <a:chExt cx="2133600" cy="568347"/>
         </a:xfrm>
@@ -2591,15 +2582,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>234974</xdr:colOff>
+      <xdr:colOff>232073</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
+      <xdr:rowOff>78442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>246392</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>223837</xdr:rowOff>
+      <xdr:colOff>246390</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>12838</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2617,8 +2608,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="1992022" y="3474418"/>
-          <a:ext cx="383521" cy="1306818"/>
+          <a:off x="1948434" y="3378029"/>
+          <a:ext cx="398222" cy="1286525"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2646,13 +2637,13 @@
       <xdr:col>31</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>105494</xdr:rowOff>
+      <xdr:rowOff>106447</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>82004</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>167428</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>11135</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2670,8 +2661,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10125075" y="4201244"/>
-          <a:ext cx="1291679" cy="61934"/>
+          <a:off x="10006965" y="4030747"/>
+          <a:ext cx="1276439" cy="133288"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -2697,15 +2688,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>296615</xdr:colOff>
+      <xdr:colOff>304235</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>86139</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>161297</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>22908</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114348</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2724,8 +2715,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="3765564" y="5179751"/>
-          <a:ext cx="699183" cy="512382"/>
+          <a:off x="3601941" y="5147573"/>
+          <a:ext cx="942609" cy="497142"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2753,14 +2744,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>252413</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>79513</xdr:rowOff>
+      <xdr:colOff>250507</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>170954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>296615</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:colOff>304234</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2780,8 +2771,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="3467045" y="7142356"/>
-          <a:ext cx="739638" cy="44202"/>
+          <a:off x="3602300" y="7007101"/>
+          <a:ext cx="391022" cy="53727"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2809,15 +2800,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>234974</xdr:colOff>
+      <xdr:colOff>232073</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
+      <xdr:rowOff>78442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>38102</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>2692</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2835,8 +2826,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="-129042" y="5595482"/>
-          <a:ext cx="4417359" cy="1098528"/>
+          <a:off x="-121899" y="5448362"/>
+          <a:ext cx="4330598" cy="1078235"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2863,14 +2854,14 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>167428</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9478</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>252346</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>223838</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>12838</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2888,8 +2879,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5905500" y="4263178"/>
-          <a:ext cx="2443096" cy="56410"/>
+          <a:off x="5801139" y="4217043"/>
+          <a:ext cx="2402511" cy="3360"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2918,14 +2909,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>142876</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>209552</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>2692</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>127555</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>85663</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>132335</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2943,8 +2934,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="5000626" y="8353427"/>
-          <a:ext cx="1280079" cy="352361"/>
+          <a:off x="4913659" y="8152779"/>
+          <a:ext cx="1256887" cy="361556"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2973,7 +2964,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>201706</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -3027,15 +3018,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>278904</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>22908</xdr:rowOff>
+      <xdr:colOff>286524</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114348</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>79513</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1905</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>170953</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3050,8 +3041,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2869704" y="5785533"/>
-          <a:ext cx="1978521" cy="1009105"/>
+          <a:off x="2846844" y="5410248"/>
+          <a:ext cx="1955661" cy="971005"/>
           <a:chOff x="2609850" y="1162050"/>
           <a:chExt cx="2133601" cy="495326"/>
         </a:xfrm>
@@ -3270,13 +3261,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>196304</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>101766</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>80647</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3292,8 +3283,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10235654" y="8721891"/>
-          <a:ext cx="1746796" cy="693256"/>
+          <a:off x="10117544" y="7912266"/>
+          <a:ext cx="1723936" cy="664681"/>
           <a:chOff x="2609850" y="1162050"/>
           <a:chExt cx="2133600" cy="971550"/>
         </a:xfrm>
@@ -3451,13 +3442,13 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>98152</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>144739</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>101768</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3506,13 +3497,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>213278</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3528,8 +3519,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9281078" y="6886575"/>
-          <a:ext cx="3749121" cy="1066800"/>
+          <a:off x="9174398" y="6153150"/>
+          <a:ext cx="3703401" cy="1019175"/>
           <a:chOff x="2609850" y="1162050"/>
           <a:chExt cx="2133600" cy="368557"/>
         </a:xfrm>
@@ -3706,7 +3697,7 @@
                 </a:solidFill>
                 <a:effectLst/>
               </a:rPr>
-              <a:t>+ insert(Record record)</a:t>
+              <a:t>+ insert(DTO record)</a:t>
             </a:r>
             <a:endParaRPr lang="ja-JP" altLang="ja-JP">
               <a:solidFill>
@@ -3830,14 +3821,14 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>223837</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>213279</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>85662</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>132334</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3855,8 +3846,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="8258176" y="7419975"/>
-          <a:ext cx="1022903" cy="1285812"/>
+          <a:off x="8162926" y="7119937"/>
+          <a:ext cx="1011473" cy="1280097"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3884,15 +3875,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>146604</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:colOff>22779</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>209428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>304801</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
+      <xdr:rowOff>121921</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3907,10 +3898,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6299754" y="6686428"/>
-          <a:ext cx="1977471" cy="695448"/>
+          <a:off x="6103539" y="5962528"/>
+          <a:ext cx="2202262" cy="1055493"/>
           <a:chOff x="2609850" y="1162050"/>
-          <a:chExt cx="2133600" cy="340100"/>
+          <a:chExt cx="2133600" cy="538293"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -3927,7 +3918,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="2609850" y="1162050"/>
-            <a:ext cx="2133600" cy="340100"/>
+            <a:ext cx="2133600" cy="538293"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3969,6 +3960,22 @@
             </a:endParaRPr>
           </a:p>
           <a:p>
+            <a:endParaRPr lang="en-US" altLang="ja-JP">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" altLang="ja-JP">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
             <a:endParaRPr lang="ja-JP" altLang="ja-JP">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -4023,8 +4030,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2609850" y="1162050"/>
-            <a:ext cx="2133600" cy="139936"/>
+            <a:off x="2609850" y="1162051"/>
+            <a:ext cx="2133600" cy="320669"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4075,6 +4082,37 @@
               </a:rPr>
               <a:t>DTO</a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>TitleManagementTableExample</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>)</a:t>
+            </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -4090,14 +4128,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>80902</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>49718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>146604</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>209551</xdr:rowOff>
+      <xdr:colOff>22779</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>2692</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4115,8 +4153,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5000625" y="7034152"/>
-          <a:ext cx="1299129" cy="1319274"/>
+          <a:off x="4913658" y="7040240"/>
+          <a:ext cx="1152112" cy="1112539"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4144,15 +4182,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>80902</xdr:rowOff>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>51375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>213278</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>223838</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4170,8 +4208,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8277225" y="7034152"/>
-          <a:ext cx="1003853" cy="385823"/>
+          <a:off x="8305801" y="6947475"/>
+          <a:ext cx="868597" cy="172463"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4227,8 +4265,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2370044" y="1186143"/>
-          <a:ext cx="2140324" cy="1005167"/>
+          <a:off x="2354356" y="1141319"/>
+          <a:ext cx="2126876" cy="993962"/>
           <a:chOff x="2609850" y="1162050"/>
           <a:chExt cx="2133600" cy="971550"/>
         </a:xfrm>
@@ -4419,8 +4457,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2636606" y="4143514"/>
-          <a:ext cx="2764629" cy="1628217"/>
+          <a:off x="2618676" y="4058350"/>
+          <a:ext cx="2746701" cy="1612528"/>
           <a:chOff x="2609850" y="1162050"/>
           <a:chExt cx="2133600" cy="808068"/>
         </a:xfrm>
@@ -4732,8 +4770,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12119582" y="3015223"/>
-          <a:ext cx="1207014" cy="686921"/>
+          <a:off x="12036658" y="2941264"/>
+          <a:ext cx="1198050" cy="680198"/>
           <a:chOff x="2609850" y="1162050"/>
           <a:chExt cx="2133600" cy="971550"/>
         </a:xfrm>
@@ -4913,8 +4951,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6364940" y="4828893"/>
-          <a:ext cx="2272413" cy="725022"/>
+          <a:off x="6322358" y="4737005"/>
+          <a:ext cx="2256725" cy="718298"/>
           <a:chOff x="2609850" y="1162050"/>
           <a:chExt cx="2133600" cy="359591"/>
         </a:xfrm>
@@ -5130,8 +5168,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="750794" y="2897981"/>
-          <a:ext cx="1569243" cy="1001667"/>
+          <a:off x="746312" y="2824022"/>
+          <a:ext cx="1558037" cy="992702"/>
           <a:chOff x="2609850" y="1162050"/>
           <a:chExt cx="2133600" cy="496799"/>
         </a:xfrm>
@@ -5354,8 +5392,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8718176" y="4857609"/>
-          <a:ext cx="2272413" cy="680198"/>
+          <a:off x="8659906" y="4765721"/>
+          <a:ext cx="2256725" cy="673474"/>
           <a:chOff x="2609850" y="1162050"/>
           <a:chExt cx="2133600" cy="336241"/>
         </a:xfrm>
@@ -5596,8 +5634,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11082618" y="4854807"/>
-          <a:ext cx="2272413" cy="689301"/>
+          <a:off x="11006418" y="4762919"/>
+          <a:ext cx="2256725" cy="682577"/>
           <a:chOff x="2609850" y="1162050"/>
           <a:chExt cx="2133600" cy="342078"/>
         </a:xfrm>
@@ -5793,8 +5831,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9127891" y="2794327"/>
-          <a:ext cx="2272412" cy="1758766"/>
+          <a:off x="9065139" y="2722610"/>
+          <a:ext cx="2256722" cy="1740836"/>
           <a:chOff x="2609850" y="1162050"/>
           <a:chExt cx="2133600" cy="873292"/>
         </a:xfrm>
@@ -6103,8 +6141,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2554942" y="8367150"/>
-          <a:ext cx="2711824" cy="936534"/>
+          <a:off x="2539254" y="8241644"/>
+          <a:ext cx="2691654" cy="927569"/>
           <a:chOff x="2609850" y="1162050"/>
           <a:chExt cx="2133600" cy="464667"/>
         </a:xfrm>
@@ -6358,8 +6396,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7026088" y="7710208"/>
-          <a:ext cx="2006973" cy="694203"/>
+          <a:off x="6979024" y="7591426"/>
+          <a:ext cx="1993525" cy="687479"/>
           <a:chOff x="2609850" y="1162050"/>
           <a:chExt cx="2133600" cy="344306"/>
         </a:xfrm>
@@ -6575,8 +6613,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7853724" y="8763558"/>
-          <a:ext cx="2006973" cy="725021"/>
+          <a:off x="7799936" y="8633570"/>
+          <a:ext cx="1993525" cy="718297"/>
           <a:chOff x="2609850" y="1162050"/>
           <a:chExt cx="2133600" cy="359591"/>
         </a:xfrm>
@@ -6783,8 +6821,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7014883" y="6006914"/>
-          <a:ext cx="2006973" cy="694203"/>
+          <a:off x="6967819" y="5903820"/>
+          <a:ext cx="1993525" cy="687480"/>
           <a:chOff x="2609850" y="1162050"/>
           <a:chExt cx="2133600" cy="344306"/>
         </a:xfrm>
@@ -6980,8 +7018,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7014882" y="6836150"/>
-          <a:ext cx="2006974" cy="694203"/>
+          <a:off x="6967818" y="6726333"/>
+          <a:ext cx="1993526" cy="687479"/>
           <a:chOff x="2609850" y="1162050"/>
           <a:chExt cx="2133601" cy="344306"/>
         </a:xfrm>
@@ -7715,8 +7753,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6342529" y="3317502"/>
-          <a:ext cx="2006973" cy="694203"/>
+          <a:off x="6299947" y="3241302"/>
+          <a:ext cx="1993525" cy="687479"/>
           <a:chOff x="2609850" y="1162050"/>
           <a:chExt cx="2133600" cy="344306"/>
         </a:xfrm>
@@ -8309,8 +8347,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2554942" y="6148385"/>
-          <a:ext cx="2711824" cy="1841408"/>
+          <a:off x="2539254" y="6045291"/>
+          <a:ext cx="2691654" cy="1823478"/>
           <a:chOff x="2609850" y="1162050"/>
           <a:chExt cx="2133600" cy="913626"/>
         </a:xfrm>
@@ -8861,8 +8899,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2345531" y="1188244"/>
-          <a:ext cx="2119313" cy="1000125"/>
+          <a:off x="2362200" y="1143000"/>
+          <a:ext cx="2133600" cy="952500"/>
           <a:chOff x="2609850" y="1162050"/>
           <a:chExt cx="2133600" cy="952500"/>
         </a:xfrm>
@@ -9053,8 +9091,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2033588" y="5114924"/>
-          <a:ext cx="2119312" cy="1981202"/>
+          <a:off x="2047875" y="4905374"/>
+          <a:ext cx="2133600" cy="1905002"/>
           <a:chOff x="2609850" y="1162050"/>
           <a:chExt cx="2133600" cy="971550"/>
         </a:xfrm>
@@ -9417,8 +9455,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6307931" y="3924299"/>
-          <a:ext cx="2116932" cy="695326"/>
+          <a:off x="6353175" y="3762374"/>
+          <a:ext cx="2133600" cy="666751"/>
           <a:chOff x="2609850" y="1162050"/>
           <a:chExt cx="2133600" cy="971550"/>
         </a:xfrm>
@@ -9635,8 +9673,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6222206" y="6600824"/>
-          <a:ext cx="2514600" cy="1971678"/>
+          <a:off x="6267450" y="6334124"/>
+          <a:ext cx="2533650" cy="1895478"/>
           <a:chOff x="2609850" y="1162050"/>
           <a:chExt cx="2133600" cy="966693"/>
         </a:xfrm>
@@ -10283,9 +10321,9 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="11" spans="6:6" ht="58.5">
+    <row r="11" spans="6:6" ht="58.2">
       <c r="F11" s="5" t="s">
         <v>17</v>
       </c>
@@ -10293,7 +10331,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10303,9 +10341,9 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5.25" customWidth="1"/>
+    <col min="1" max="1" width="5.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -11085,7 +11123,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11094,180 +11132,180 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ62"/>
+  <dimension ref="A1:AQ40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="4.19921875" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:43" ht="19.5" thickTop="1">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:43" ht="18.600000000000001" thickTop="1">
+      <c r="A1" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="32" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32" t="s">
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32" t="s">
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="35">
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="38">
         <v>44464</v>
       </c>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="32" t="s">
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32" t="s">
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="33"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="35"/>
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="36"/>
     </row>
     <row r="2" spans="1:43">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="34" t="s">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34" t="s">
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34" t="s">
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="35">
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="38">
         <v>44464</v>
       </c>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34" t="s">
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34" t="s">
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="34"/>
-      <c r="AO2" s="34"/>
-      <c r="AP2" s="34"/>
-      <c r="AQ2" s="36"/>
-    </row>
-    <row r="3" spans="1:43" ht="19.5" thickBot="1">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="43" t="s">
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="37"/>
+      <c r="AO2" s="37"/>
+      <c r="AP2" s="37"/>
+      <c r="AQ2" s="39"/>
+    </row>
+    <row r="3" spans="1:43" ht="18.600000000000001" thickBot="1">
+      <c r="A3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="43"/>
-      <c r="O3" s="44" t="s">
+      <c r="N3" s="20"/>
+      <c r="O3" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="45"/>
-    </row>
-    <row r="4" spans="1:43" ht="20.25" thickTop="1" thickBot="1">
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="21"/>
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="21"/>
+      <c r="AN3" s="21"/>
+      <c r="AO3" s="21"/>
+      <c r="AP3" s="21"/>
+      <c r="AQ3" s="22"/>
+    </row>
+    <row r="4" spans="1:43" ht="19.2" thickTop="1" thickBot="1">
       <c r="A4" s="9"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -11313,12 +11351,12 @@
       <c r="AQ4" s="8"/>
     </row>
     <row r="5" spans="1:43">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -11360,10 +11398,10 @@
       <c r="AQ5" s="7"/>
     </row>
     <row r="6" spans="1:43">
-      <c r="A6" s="26"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -11407,10 +11445,10 @@
       <c r="AQ6" s="8"/>
     </row>
     <row r="7" spans="1:43">
-      <c r="A7" s="26"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -11454,10 +11492,10 @@
       <c r="AQ7" s="8"/>
     </row>
     <row r="8" spans="1:43">
-      <c r="A8" s="29"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -11547,7 +11585,7 @@
       <c r="AP9" s="2"/>
       <c r="AQ9" s="8"/>
     </row>
-    <row r="10" spans="1:43" ht="19.5" thickBot="1">
+    <row r="10" spans="1:43" ht="18.600000000000001" thickBot="1">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -11593,51 +11631,51 @@
       <c r="AQ10" s="12"/>
     </row>
     <row r="11" spans="1:43">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="21"/>
-      <c r="AA11" s="21"/>
-      <c r="AB11" s="21"/>
-      <c r="AC11" s="21"/>
-      <c r="AD11" s="21"/>
-      <c r="AE11" s="21"/>
-      <c r="AF11" s="21"/>
-      <c r="AG11" s="21"/>
-      <c r="AH11" s="21"/>
-      <c r="AI11" s="21"/>
-      <c r="AJ11" s="21"/>
-      <c r="AK11" s="21"/>
-      <c r="AL11" s="21"/>
-      <c r="AM11" s="21"/>
-      <c r="AN11" s="21"/>
-      <c r="AO11" s="21"/>
-      <c r="AP11" s="21"/>
-      <c r="AQ11" s="22"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="24"/>
+      <c r="AD11" s="24"/>
+      <c r="AE11" s="24"/>
+      <c r="AF11" s="24"/>
+      <c r="AG11" s="24"/>
+      <c r="AH11" s="24"/>
+      <c r="AI11" s="24"/>
+      <c r="AJ11" s="24"/>
+      <c r="AK11" s="24"/>
+      <c r="AL11" s="24"/>
+      <c r="AM11" s="24"/>
+      <c r="AN11" s="24"/>
+      <c r="AO11" s="24"/>
+      <c r="AP11" s="24"/>
+      <c r="AQ11" s="25"/>
     </row>
     <row r="12" spans="1:43">
       <c r="A12" s="9"/>
@@ -12855,49 +12893,49 @@
       <c r="AQ38" s="8"/>
     </row>
     <row r="39" spans="1:43">
-      <c r="A39" s="9"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
-      <c r="AA39" s="2"/>
-      <c r="AB39" s="2"/>
-      <c r="AC39" s="2"/>
-      <c r="AD39" s="2"/>
-      <c r="AE39" s="2"/>
-      <c r="AF39" s="2"/>
-      <c r="AG39" s="2"/>
-      <c r="AH39" s="2"/>
-      <c r="AI39" s="2"/>
-      <c r="AJ39" s="2"/>
-      <c r="AK39" s="2"/>
-      <c r="AL39" s="2"/>
-      <c r="AM39" s="2"/>
-      <c r="AN39" s="2"/>
-      <c r="AO39" s="2"/>
-      <c r="AP39" s="2"/>
-      <c r="AQ39" s="8"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+      <c r="AG39" s="3"/>
+      <c r="AH39" s="3"/>
+      <c r="AI39" s="3"/>
+      <c r="AJ39" s="3"/>
+      <c r="AK39" s="3"/>
+      <c r="AL39" s="3"/>
+      <c r="AM39" s="3"/>
+      <c r="AN39" s="3"/>
+      <c r="AO39" s="3"/>
+      <c r="AP39" s="3"/>
+      <c r="AQ39" s="14"/>
     </row>
     <row r="40" spans="1:43">
       <c r="A40" s="9"/>
@@ -12944,6 +12982,508 @@
       <c r="AP40" s="2"/>
       <c r="AQ40" s="8"/>
     </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:AQ3"/>
+    <mergeCell ref="A11:AQ11"/>
+    <mergeCell ref="A5:D8"/>
+    <mergeCell ref="AK1:AQ1"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AQ2"/>
+    <mergeCell ref="A1:L3"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AH1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB5F17A-42EA-4DA7-B90F-05D95435A61A}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.249977111117893"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AQ62"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="80" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection sqref="A1:L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.19921875" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:43" ht="18.600000000000001" thickTop="1">
+      <c r="A1" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="38">
+        <v>44464</v>
+      </c>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="35"/>
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="36"/>
+    </row>
+    <row r="2" spans="1:43">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="38">
+        <v>44464</v>
+      </c>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="37"/>
+      <c r="AO2" s="37"/>
+      <c r="AP2" s="37"/>
+      <c r="AQ2" s="39"/>
+    </row>
+    <row r="3" spans="1:43" ht="18.600000000000001" thickBot="1">
+      <c r="A3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="20"/>
+      <c r="O3" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="21"/>
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="21"/>
+      <c r="AN3" s="21"/>
+      <c r="AO3" s="21"/>
+      <c r="AP3" s="21"/>
+      <c r="AQ3" s="22"/>
+    </row>
+    <row r="4" spans="1:43" ht="19.2" thickTop="1" thickBot="1">
+      <c r="A4" s="9"/>
+      <c r="AQ4" s="8"/>
+    </row>
+    <row r="5" spans="1:43">
+      <c r="A5" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="6"/>
+      <c r="AQ5" s="7"/>
+    </row>
+    <row r="6" spans="1:43">
+      <c r="A6" s="29"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="31"/>
+      <c r="Q6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ6" s="8"/>
+    </row>
+    <row r="7" spans="1:43">
+      <c r="A7" s="29"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="31"/>
+      <c r="Q7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ7" s="8"/>
+    </row>
+    <row r="8" spans="1:43">
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="Q8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ8" s="8"/>
+    </row>
+    <row r="9" spans="1:43">
+      <c r="A9" s="9"/>
+      <c r="Q9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ9" s="8"/>
+    </row>
+    <row r="10" spans="1:43" ht="18.600000000000001" thickBot="1">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="11"/>
+      <c r="AN10" s="11"/>
+      <c r="AO10" s="11"/>
+      <c r="AP10" s="11"/>
+      <c r="AQ10" s="12"/>
+    </row>
+    <row r="11" spans="1:43">
+      <c r="A11" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="24"/>
+      <c r="AD11" s="24"/>
+      <c r="AE11" s="24"/>
+      <c r="AF11" s="24"/>
+      <c r="AG11" s="24"/>
+      <c r="AH11" s="24"/>
+      <c r="AI11" s="24"/>
+      <c r="AJ11" s="24"/>
+      <c r="AK11" s="24"/>
+      <c r="AL11" s="24"/>
+      <c r="AM11" s="24"/>
+      <c r="AN11" s="24"/>
+      <c r="AO11" s="24"/>
+      <c r="AP11" s="24"/>
+      <c r="AQ11" s="25"/>
+    </row>
+    <row r="12" spans="1:43">
+      <c r="A12" s="9"/>
+      <c r="AQ12" s="8"/>
+    </row>
+    <row r="13" spans="1:43">
+      <c r="A13" s="9"/>
+      <c r="AQ13" s="8"/>
+    </row>
+    <row r="14" spans="1:43">
+      <c r="A14" s="9"/>
+      <c r="AQ14" s="8"/>
+    </row>
+    <row r="15" spans="1:43">
+      <c r="A15" s="9"/>
+      <c r="AQ15" s="8"/>
+    </row>
+    <row r="16" spans="1:43">
+      <c r="A16" s="9"/>
+      <c r="AQ16" s="8"/>
+    </row>
+    <row r="17" spans="1:43">
+      <c r="A17" s="9"/>
+      <c r="AQ17" s="8"/>
+    </row>
+    <row r="18" spans="1:43">
+      <c r="A18" s="9"/>
+      <c r="AQ18" s="8"/>
+    </row>
+    <row r="19" spans="1:43">
+      <c r="A19" s="9"/>
+      <c r="AQ19" s="8"/>
+    </row>
+    <row r="20" spans="1:43">
+      <c r="A20" s="9"/>
+      <c r="AQ20" s="8"/>
+    </row>
+    <row r="21" spans="1:43">
+      <c r="A21" s="9"/>
+      <c r="AQ21" s="8"/>
+    </row>
+    <row r="22" spans="1:43">
+      <c r="A22" s="9"/>
+      <c r="AQ22" s="8"/>
+    </row>
+    <row r="23" spans="1:43">
+      <c r="A23" s="9"/>
+      <c r="AQ23" s="8"/>
+    </row>
+    <row r="24" spans="1:43">
+      <c r="A24" s="9"/>
+      <c r="AQ24" s="8"/>
+    </row>
+    <row r="25" spans="1:43">
+      <c r="A25" s="9"/>
+      <c r="AQ25" s="8"/>
+    </row>
+    <row r="26" spans="1:43">
+      <c r="A26" s="9"/>
+      <c r="AQ26" s="8"/>
+    </row>
+    <row r="27" spans="1:43">
+      <c r="A27" s="9"/>
+      <c r="AQ27" s="8"/>
+    </row>
+    <row r="28" spans="1:43">
+      <c r="A28" s="9"/>
+      <c r="AQ28" s="8"/>
+    </row>
+    <row r="29" spans="1:43">
+      <c r="A29" s="9"/>
+      <c r="AQ29" s="8"/>
+    </row>
+    <row r="30" spans="1:43">
+      <c r="A30" s="9"/>
+      <c r="AQ30" s="8"/>
+    </row>
+    <row r="31" spans="1:43">
+      <c r="A31" s="9"/>
+      <c r="AQ31" s="8"/>
+    </row>
+    <row r="32" spans="1:43">
+      <c r="A32" s="9"/>
+      <c r="AQ32" s="8"/>
+    </row>
+    <row r="33" spans="1:43">
+      <c r="A33" s="9"/>
+      <c r="AQ33" s="8"/>
+    </row>
+    <row r="34" spans="1:43">
+      <c r="A34" s="9"/>
+      <c r="AQ34" s="8"/>
+    </row>
+    <row r="35" spans="1:43">
+      <c r="A35" s="9"/>
+      <c r="AQ35" s="8"/>
+    </row>
+    <row r="36" spans="1:43">
+      <c r="A36" s="9"/>
+      <c r="AQ36" s="8"/>
+    </row>
+    <row r="37" spans="1:43">
+      <c r="A37" s="9"/>
+      <c r="AQ37" s="8"/>
+    </row>
+    <row r="38" spans="1:43">
+      <c r="A38" s="9"/>
+      <c r="AQ38" s="8"/>
+    </row>
+    <row r="39" spans="1:43">
+      <c r="A39" s="9"/>
+      <c r="AQ39" s="8"/>
+    </row>
+    <row r="40" spans="1:43">
+      <c r="A40" s="9"/>
+      <c r="AQ40" s="8"/>
+    </row>
     <row r="41" spans="1:43">
       <c r="A41" s="13"/>
       <c r="B41" s="3"/>
@@ -12991,905 +13531,85 @@
     </row>
     <row r="42" spans="1:43">
       <c r="A42" s="9"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-      <c r="X42" s="2"/>
-      <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
-      <c r="AA42" s="2"/>
-      <c r="AB42" s="2"/>
-      <c r="AC42" s="2"/>
-      <c r="AD42" s="2"/>
-      <c r="AE42" s="2"/>
-      <c r="AF42" s="2"/>
-      <c r="AG42" s="2"/>
-      <c r="AH42" s="2"/>
-      <c r="AI42" s="2"/>
-      <c r="AJ42" s="2"/>
-      <c r="AK42" s="2"/>
-      <c r="AL42" s="2"/>
-      <c r="AM42" s="2"/>
-      <c r="AN42" s="2"/>
-      <c r="AO42" s="2"/>
-      <c r="AP42" s="2"/>
       <c r="AQ42" s="8"/>
     </row>
     <row r="43" spans="1:43">
       <c r="A43" s="9"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
-      <c r="W43" s="2"/>
-      <c r="X43" s="2"/>
-      <c r="Y43" s="2"/>
-      <c r="Z43" s="2"/>
-      <c r="AA43" s="2"/>
-      <c r="AB43" s="2"/>
-      <c r="AC43" s="2"/>
-      <c r="AD43" s="2"/>
-      <c r="AE43" s="2"/>
-      <c r="AF43" s="2"/>
-      <c r="AG43" s="2"/>
-      <c r="AH43" s="2"/>
-      <c r="AI43" s="2"/>
-      <c r="AJ43" s="2"/>
-      <c r="AK43" s="2"/>
-      <c r="AL43" s="2"/>
-      <c r="AM43" s="2"/>
-      <c r="AN43" s="2"/>
-      <c r="AO43" s="2"/>
-      <c r="AP43" s="2"/>
       <c r="AQ43" s="8"/>
     </row>
     <row r="44" spans="1:43">
       <c r="A44" s="9"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
-      <c r="AA44" s="2"/>
-      <c r="AB44" s="2"/>
-      <c r="AC44" s="2"/>
-      <c r="AD44" s="2"/>
-      <c r="AE44" s="2"/>
-      <c r="AF44" s="2"/>
-      <c r="AG44" s="2"/>
-      <c r="AH44" s="2"/>
-      <c r="AI44" s="2"/>
-      <c r="AJ44" s="2"/>
-      <c r="AK44" s="2"/>
-      <c r="AL44" s="2"/>
-      <c r="AM44" s="2"/>
-      <c r="AN44" s="2"/>
-      <c r="AO44" s="2"/>
-      <c r="AP44" s="2"/>
       <c r="AQ44" s="8"/>
     </row>
     <row r="45" spans="1:43">
       <c r="A45" s="9"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
-      <c r="W45" s="2"/>
-      <c r="X45" s="2"/>
-      <c r="Y45" s="2"/>
-      <c r="Z45" s="2"/>
-      <c r="AA45" s="2"/>
-      <c r="AB45" s="2"/>
-      <c r="AC45" s="2"/>
-      <c r="AD45" s="2"/>
-      <c r="AE45" s="2"/>
-      <c r="AF45" s="2"/>
-      <c r="AG45" s="2"/>
-      <c r="AH45" s="2"/>
-      <c r="AI45" s="2"/>
-      <c r="AJ45" s="2"/>
-      <c r="AK45" s="2"/>
-      <c r="AL45" s="2"/>
-      <c r="AM45" s="2"/>
-      <c r="AN45" s="2"/>
-      <c r="AO45" s="2"/>
-      <c r="AP45" s="2"/>
       <c r="AQ45" s="8"/>
     </row>
     <row r="46" spans="1:43">
       <c r="A46" s="9"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
-      <c r="W46" s="2"/>
-      <c r="X46" s="2"/>
-      <c r="Y46" s="2"/>
-      <c r="Z46" s="2"/>
-      <c r="AA46" s="2"/>
-      <c r="AB46" s="2"/>
-      <c r="AC46" s="2"/>
-      <c r="AD46" s="2"/>
-      <c r="AE46" s="2"/>
-      <c r="AF46" s="2"/>
-      <c r="AG46" s="2"/>
-      <c r="AH46" s="2"/>
-      <c r="AI46" s="2"/>
-      <c r="AJ46" s="2"/>
-      <c r="AK46" s="2"/>
-      <c r="AL46" s="2"/>
-      <c r="AM46" s="2"/>
-      <c r="AN46" s="2"/>
-      <c r="AO46" s="2"/>
-      <c r="AP46" s="2"/>
       <c r="AQ46" s="8"/>
     </row>
     <row r="47" spans="1:43">
       <c r="A47" s="9"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
-      <c r="X47" s="2"/>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="2"/>
-      <c r="AA47" s="2"/>
-      <c r="AB47" s="2"/>
-      <c r="AC47" s="2"/>
-      <c r="AD47" s="2"/>
-      <c r="AE47" s="2"/>
-      <c r="AF47" s="2"/>
-      <c r="AG47" s="2"/>
-      <c r="AH47" s="2"/>
-      <c r="AI47" s="2"/>
-      <c r="AJ47" s="2"/>
-      <c r="AK47" s="2"/>
-      <c r="AL47" s="2"/>
-      <c r="AM47" s="2"/>
-      <c r="AN47" s="2"/>
-      <c r="AO47" s="2"/>
-      <c r="AP47" s="2"/>
       <c r="AQ47" s="8"/>
     </row>
     <row r="48" spans="1:43">
       <c r="A48" s="9"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
-      <c r="V48" s="2"/>
-      <c r="W48" s="2"/>
-      <c r="X48" s="2"/>
-      <c r="Y48" s="2"/>
-      <c r="Z48" s="2"/>
-      <c r="AA48" s="2"/>
-      <c r="AB48" s="2"/>
-      <c r="AC48" s="2"/>
-      <c r="AD48" s="2"/>
-      <c r="AE48" s="2"/>
-      <c r="AF48" s="2"/>
-      <c r="AG48" s="2"/>
-      <c r="AH48" s="2"/>
-      <c r="AI48" s="2"/>
-      <c r="AJ48" s="2"/>
-      <c r="AK48" s="2"/>
-      <c r="AL48" s="2"/>
-      <c r="AM48" s="2"/>
-      <c r="AN48" s="2"/>
-      <c r="AO48" s="2"/>
-      <c r="AP48" s="2"/>
       <c r="AQ48" s="8"/>
     </row>
     <row r="49" spans="1:43">
       <c r="A49" s="9"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
-      <c r="X49" s="2"/>
-      <c r="Y49" s="2"/>
-      <c r="Z49" s="2"/>
-      <c r="AA49" s="2"/>
-      <c r="AB49" s="2"/>
-      <c r="AC49" s="2"/>
-      <c r="AD49" s="2"/>
-      <c r="AE49" s="2"/>
-      <c r="AF49" s="2"/>
-      <c r="AG49" s="2"/>
-      <c r="AH49" s="2"/>
-      <c r="AI49" s="2"/>
-      <c r="AJ49" s="2"/>
-      <c r="AK49" s="2"/>
-      <c r="AL49" s="2"/>
-      <c r="AM49" s="2"/>
-      <c r="AN49" s="2"/>
-      <c r="AO49" s="2"/>
-      <c r="AP49" s="2"/>
       <c r="AQ49" s="8"/>
     </row>
     <row r="50" spans="1:43">
       <c r="A50" s="9"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
-      <c r="V50" s="2"/>
-      <c r="W50" s="2"/>
-      <c r="X50" s="2"/>
-      <c r="Y50" s="2"/>
-      <c r="Z50" s="2"/>
-      <c r="AA50" s="2"/>
-      <c r="AB50" s="2"/>
-      <c r="AC50" s="2"/>
-      <c r="AD50" s="2"/>
-      <c r="AE50" s="2"/>
-      <c r="AF50" s="2"/>
-      <c r="AG50" s="2"/>
-      <c r="AH50" s="2"/>
-      <c r="AI50" s="2"/>
-      <c r="AJ50" s="2"/>
-      <c r="AK50" s="2"/>
-      <c r="AL50" s="2"/>
-      <c r="AM50" s="2"/>
-      <c r="AN50" s="2"/>
-      <c r="AO50" s="2"/>
-      <c r="AP50" s="2"/>
       <c r="AQ50" s="8"/>
     </row>
     <row r="51" spans="1:43">
       <c r="A51" s="9"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
-      <c r="W51" s="2"/>
-      <c r="X51" s="2"/>
-      <c r="Y51" s="2"/>
-      <c r="Z51" s="2"/>
-      <c r="AA51" s="2"/>
-      <c r="AB51" s="2"/>
-      <c r="AC51" s="2"/>
-      <c r="AD51" s="2"/>
-      <c r="AE51" s="2"/>
-      <c r="AF51" s="2"/>
-      <c r="AG51" s="2"/>
-      <c r="AH51" s="2"/>
-      <c r="AI51" s="2"/>
-      <c r="AJ51" s="2"/>
-      <c r="AK51" s="2"/>
-      <c r="AL51" s="2"/>
-      <c r="AM51" s="2"/>
-      <c r="AN51" s="2"/>
-      <c r="AO51" s="2"/>
-      <c r="AP51" s="2"/>
       <c r="AQ51" s="8"/>
     </row>
     <row r="52" spans="1:43">
       <c r="A52" s="9"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
-      <c r="U52" s="2"/>
-      <c r="V52" s="2"/>
-      <c r="W52" s="2"/>
-      <c r="X52" s="2"/>
-      <c r="Y52" s="2"/>
-      <c r="Z52" s="2"/>
-      <c r="AA52" s="2"/>
-      <c r="AB52" s="2"/>
-      <c r="AC52" s="2"/>
-      <c r="AD52" s="2"/>
-      <c r="AE52" s="2"/>
-      <c r="AF52" s="2"/>
-      <c r="AG52" s="2"/>
-      <c r="AH52" s="2"/>
-      <c r="AI52" s="2"/>
-      <c r="AJ52" s="2"/>
-      <c r="AK52" s="2"/>
-      <c r="AL52" s="2"/>
-      <c r="AM52" s="2"/>
-      <c r="AN52" s="2"/>
-      <c r="AO52" s="2"/>
-      <c r="AP52" s="2"/>
       <c r="AQ52" s="8"/>
     </row>
     <row r="53" spans="1:43">
       <c r="A53" s="9"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
-      <c r="W53" s="2"/>
-      <c r="X53" s="2"/>
-      <c r="Y53" s="2"/>
-      <c r="Z53" s="2"/>
-      <c r="AA53" s="2"/>
-      <c r="AB53" s="2"/>
-      <c r="AC53" s="2"/>
-      <c r="AD53" s="2"/>
-      <c r="AE53" s="2"/>
-      <c r="AF53" s="2"/>
-      <c r="AG53" s="2"/>
-      <c r="AH53" s="2"/>
-      <c r="AI53" s="2"/>
-      <c r="AJ53" s="2"/>
-      <c r="AK53" s="2"/>
-      <c r="AL53" s="2"/>
-      <c r="AM53" s="2"/>
-      <c r="AN53" s="2"/>
-      <c r="AO53" s="2"/>
-      <c r="AP53" s="2"/>
       <c r="AQ53" s="8"/>
     </row>
     <row r="54" spans="1:43">
       <c r="A54" s="9"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="2"/>
-      <c r="V54" s="2"/>
-      <c r="W54" s="2"/>
-      <c r="X54" s="2"/>
-      <c r="Y54" s="2"/>
-      <c r="Z54" s="2"/>
-      <c r="AA54" s="2"/>
-      <c r="AB54" s="2"/>
-      <c r="AC54" s="2"/>
-      <c r="AD54" s="2"/>
-      <c r="AE54" s="2"/>
-      <c r="AF54" s="2"/>
-      <c r="AG54" s="2"/>
-      <c r="AH54" s="2"/>
-      <c r="AI54" s="2"/>
-      <c r="AJ54" s="2"/>
-      <c r="AK54" s="2"/>
-      <c r="AL54" s="2"/>
-      <c r="AM54" s="2"/>
-      <c r="AN54" s="2"/>
-      <c r="AO54" s="2"/>
-      <c r="AP54" s="2"/>
       <c r="AQ54" s="8"/>
     </row>
     <row r="55" spans="1:43">
       <c r="A55" s="9"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
-      <c r="U55" s="2"/>
-      <c r="V55" s="2"/>
-      <c r="W55" s="2"/>
-      <c r="X55" s="2"/>
-      <c r="Y55" s="2"/>
-      <c r="Z55" s="2"/>
-      <c r="AA55" s="2"/>
-      <c r="AB55" s="2"/>
-      <c r="AC55" s="2"/>
-      <c r="AD55" s="2"/>
-      <c r="AE55" s="2"/>
-      <c r="AF55" s="2"/>
-      <c r="AG55" s="2"/>
-      <c r="AH55" s="2"/>
-      <c r="AI55" s="2"/>
-      <c r="AJ55" s="2"/>
-      <c r="AK55" s="2"/>
-      <c r="AL55" s="2"/>
-      <c r="AM55" s="2"/>
-      <c r="AN55" s="2"/>
-      <c r="AO55" s="2"/>
-      <c r="AP55" s="2"/>
       <c r="AQ55" s="8"/>
     </row>
     <row r="56" spans="1:43">
       <c r="A56" s="9"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="2"/>
-      <c r="S56" s="2"/>
-      <c r="T56" s="2"/>
-      <c r="U56" s="2"/>
-      <c r="V56" s="2"/>
-      <c r="W56" s="2"/>
-      <c r="X56" s="2"/>
-      <c r="Y56" s="2"/>
-      <c r="Z56" s="2"/>
-      <c r="AA56" s="2"/>
-      <c r="AB56" s="2"/>
-      <c r="AC56" s="2"/>
-      <c r="AD56" s="2"/>
-      <c r="AE56" s="2"/>
-      <c r="AF56" s="2"/>
-      <c r="AG56" s="2"/>
-      <c r="AH56" s="2"/>
-      <c r="AI56" s="2"/>
-      <c r="AJ56" s="2"/>
-      <c r="AK56" s="2"/>
-      <c r="AL56" s="2"/>
-      <c r="AM56" s="2"/>
-      <c r="AN56" s="2"/>
-      <c r="AO56" s="2"/>
-      <c r="AP56" s="2"/>
       <c r="AQ56" s="8"/>
     </row>
     <row r="57" spans="1:43">
       <c r="A57" s="9"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
-      <c r="R57" s="2"/>
-      <c r="S57" s="2"/>
-      <c r="T57" s="2"/>
-      <c r="U57" s="2"/>
-      <c r="V57" s="2"/>
-      <c r="W57" s="2"/>
-      <c r="X57" s="2"/>
-      <c r="Y57" s="2"/>
-      <c r="Z57" s="2"/>
-      <c r="AA57" s="2"/>
-      <c r="AB57" s="2"/>
-      <c r="AC57" s="2"/>
-      <c r="AD57" s="2"/>
-      <c r="AE57" s="2"/>
-      <c r="AF57" s="2"/>
-      <c r="AG57" s="2"/>
-      <c r="AH57" s="2"/>
-      <c r="AI57" s="2"/>
-      <c r="AJ57" s="2"/>
-      <c r="AK57" s="2"/>
-      <c r="AL57" s="2"/>
-      <c r="AM57" s="2"/>
-      <c r="AN57" s="2"/>
-      <c r="AO57" s="2"/>
-      <c r="AP57" s="2"/>
       <c r="AQ57" s="8"/>
     </row>
     <row r="58" spans="1:43">
       <c r="A58" s="9"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="2"/>
-      <c r="S58" s="2"/>
-      <c r="T58" s="2"/>
-      <c r="U58" s="2"/>
-      <c r="V58" s="2"/>
-      <c r="W58" s="2"/>
-      <c r="X58" s="2"/>
-      <c r="Y58" s="2"/>
-      <c r="Z58" s="2"/>
-      <c r="AA58" s="2"/>
-      <c r="AB58" s="2"/>
-      <c r="AC58" s="2"/>
-      <c r="AD58" s="2"/>
-      <c r="AE58" s="2"/>
-      <c r="AF58" s="2"/>
-      <c r="AG58" s="2"/>
-      <c r="AH58" s="2"/>
-      <c r="AI58" s="2"/>
-      <c r="AJ58" s="2"/>
-      <c r="AK58" s="2"/>
-      <c r="AL58" s="2"/>
-      <c r="AM58" s="2"/>
-      <c r="AN58" s="2"/>
-      <c r="AO58" s="2"/>
-      <c r="AP58" s="2"/>
       <c r="AQ58" s="8"/>
     </row>
     <row r="59" spans="1:43">
       <c r="A59" s="9"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="2"/>
-      <c r="R59" s="2"/>
-      <c r="S59" s="2"/>
-      <c r="T59" s="2"/>
-      <c r="U59" s="2"/>
-      <c r="V59" s="2"/>
-      <c r="W59" s="2"/>
-      <c r="X59" s="2"/>
-      <c r="Y59" s="2"/>
-      <c r="Z59" s="2"/>
-      <c r="AA59" s="2"/>
-      <c r="AB59" s="2"/>
-      <c r="AC59" s="2"/>
-      <c r="AD59" s="2"/>
-      <c r="AE59" s="2"/>
-      <c r="AF59" s="2"/>
-      <c r="AG59" s="2"/>
-      <c r="AH59" s="2"/>
-      <c r="AI59" s="2"/>
-      <c r="AJ59" s="2"/>
-      <c r="AK59" s="2"/>
-      <c r="AL59" s="2"/>
-      <c r="AM59" s="2"/>
-      <c r="AN59" s="2"/>
-      <c r="AO59" s="2"/>
-      <c r="AP59" s="2"/>
       <c r="AQ59" s="8"/>
     </row>
     <row r="60" spans="1:43">
       <c r="A60" s="9"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2"/>
-      <c r="R60" s="2"/>
-      <c r="S60" s="2"/>
-      <c r="T60" s="2"/>
-      <c r="U60" s="2"/>
-      <c r="V60" s="2"/>
-      <c r="W60" s="2"/>
-      <c r="X60" s="2"/>
-      <c r="Y60" s="2"/>
-      <c r="Z60" s="2"/>
-      <c r="AA60" s="2"/>
-      <c r="AB60" s="2"/>
-      <c r="AC60" s="2"/>
-      <c r="AD60" s="2"/>
-      <c r="AE60" s="2"/>
-      <c r="AF60" s="2"/>
-      <c r="AG60" s="2"/>
-      <c r="AH60" s="2"/>
-      <c r="AI60" s="2"/>
-      <c r="AJ60" s="2"/>
-      <c r="AK60" s="2"/>
-      <c r="AL60" s="2"/>
-      <c r="AM60" s="2"/>
-      <c r="AN60" s="2"/>
-      <c r="AO60" s="2"/>
-      <c r="AP60" s="2"/>
       <c r="AQ60" s="8"/>
     </row>
     <row r="61" spans="1:43">
       <c r="A61" s="9"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" s="2"/>
-      <c r="Q61" s="2"/>
-      <c r="R61" s="2"/>
-      <c r="S61" s="2"/>
-      <c r="T61" s="2"/>
-      <c r="U61" s="2"/>
-      <c r="V61" s="2"/>
-      <c r="W61" s="2"/>
-      <c r="X61" s="2"/>
-      <c r="Y61" s="2"/>
-      <c r="Z61" s="2"/>
-      <c r="AA61" s="2"/>
-      <c r="AB61" s="2"/>
-      <c r="AC61" s="2"/>
-      <c r="AD61" s="2"/>
-      <c r="AE61" s="2"/>
-      <c r="AF61" s="2"/>
-      <c r="AG61" s="2"/>
-      <c r="AH61" s="2"/>
-      <c r="AI61" s="2"/>
-      <c r="AJ61" s="2"/>
-      <c r="AK61" s="2"/>
-      <c r="AL61" s="2"/>
-      <c r="AM61" s="2"/>
-      <c r="AN61" s="2"/>
-      <c r="AO61" s="2"/>
-      <c r="AP61" s="2"/>
       <c r="AQ61" s="8"/>
     </row>
-    <row r="62" spans="1:43" ht="19.5" thickBot="1">
+    <row r="62" spans="1:43" ht="18.600000000000001" thickBot="1">
       <c r="A62" s="10"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -13936,678 +13656,8 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:AQ3"/>
-    <mergeCell ref="A11:AQ11"/>
-    <mergeCell ref="A5:D8"/>
-    <mergeCell ref="AK1:AQ1"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AQ2"/>
-    <mergeCell ref="A1:L3"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="M3:N3"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB5F17A-42EA-4DA7-B90F-05D95435A61A}">
-  <sheetPr>
-    <tabColor theme="0" tint="-0.249977111117893"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:AQ62"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="80" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:L3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="1" spans="1:43" ht="19.5" thickTop="1">
-      <c r="A1" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="35">
-        <v>44464</v>
-      </c>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="33"/>
-    </row>
-    <row r="2" spans="1:43">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="35">
-        <v>44464</v>
-      </c>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="34"/>
-      <c r="AO2" s="34"/>
-      <c r="AP2" s="34"/>
-      <c r="AQ2" s="36"/>
-    </row>
-    <row r="3" spans="1:43" ht="19.5" thickBot="1">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="43"/>
-      <c r="O3" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="45"/>
-    </row>
-    <row r="4" spans="1:43" ht="20.25" thickTop="1" thickBot="1">
-      <c r="A4" s="9"/>
-      <c r="AQ4" s="8"/>
-    </row>
-    <row r="5" spans="1:43">
-      <c r="A5" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="6"/>
-      <c r="AH5" s="6"/>
-      <c r="AI5" s="6"/>
-      <c r="AJ5" s="6"/>
-      <c r="AK5" s="6"/>
-      <c r="AL5" s="6"/>
-      <c r="AM5" s="6"/>
-      <c r="AN5" s="6"/>
-      <c r="AO5" s="6"/>
-      <c r="AP5" s="6"/>
-      <c r="AQ5" s="7"/>
-    </row>
-    <row r="6" spans="1:43">
-      <c r="A6" s="26"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="28"/>
-      <c r="Q6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AQ6" s="8"/>
-    </row>
-    <row r="7" spans="1:43">
-      <c r="A7" s="26"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="28"/>
-      <c r="Q7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AQ7" s="8"/>
-    </row>
-    <row r="8" spans="1:43">
-      <c r="A8" s="29"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
-      <c r="Q8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ8" s="8"/>
-    </row>
-    <row r="9" spans="1:43">
-      <c r="A9" s="9"/>
-      <c r="Q9" t="s">
-        <v>21</v>
-      </c>
-      <c r="AQ9" s="8"/>
-    </row>
-    <row r="10" spans="1:43" ht="19.5" thickBot="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="11"/>
-      <c r="AG10" s="11"/>
-      <c r="AH10" s="11"/>
-      <c r="AI10" s="11"/>
-      <c r="AJ10" s="11"/>
-      <c r="AK10" s="11"/>
-      <c r="AL10" s="11"/>
-      <c r="AM10" s="11"/>
-      <c r="AN10" s="11"/>
-      <c r="AO10" s="11"/>
-      <c r="AP10" s="11"/>
-      <c r="AQ10" s="12"/>
-    </row>
-    <row r="11" spans="1:43">
-      <c r="A11" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="21"/>
-      <c r="AA11" s="21"/>
-      <c r="AB11" s="21"/>
-      <c r="AC11" s="21"/>
-      <c r="AD11" s="21"/>
-      <c r="AE11" s="21"/>
-      <c r="AF11" s="21"/>
-      <c r="AG11" s="21"/>
-      <c r="AH11" s="21"/>
-      <c r="AI11" s="21"/>
-      <c r="AJ11" s="21"/>
-      <c r="AK11" s="21"/>
-      <c r="AL11" s="21"/>
-      <c r="AM11" s="21"/>
-      <c r="AN11" s="21"/>
-      <c r="AO11" s="21"/>
-      <c r="AP11" s="21"/>
-      <c r="AQ11" s="22"/>
-    </row>
-    <row r="12" spans="1:43">
-      <c r="A12" s="9"/>
-      <c r="AQ12" s="8"/>
-    </row>
-    <row r="13" spans="1:43">
-      <c r="A13" s="9"/>
-      <c r="AQ13" s="8"/>
-    </row>
-    <row r="14" spans="1:43">
-      <c r="A14" s="9"/>
-      <c r="AQ14" s="8"/>
-    </row>
-    <row r="15" spans="1:43">
-      <c r="A15" s="9"/>
-      <c r="AQ15" s="8"/>
-    </row>
-    <row r="16" spans="1:43">
-      <c r="A16" s="9"/>
-      <c r="AQ16" s="8"/>
-    </row>
-    <row r="17" spans="1:43">
-      <c r="A17" s="9"/>
-      <c r="AQ17" s="8"/>
-    </row>
-    <row r="18" spans="1:43">
-      <c r="A18" s="9"/>
-      <c r="AQ18" s="8"/>
-    </row>
-    <row r="19" spans="1:43">
-      <c r="A19" s="9"/>
-      <c r="AQ19" s="8"/>
-    </row>
-    <row r="20" spans="1:43">
-      <c r="A20" s="9"/>
-      <c r="AQ20" s="8"/>
-    </row>
-    <row r="21" spans="1:43">
-      <c r="A21" s="9"/>
-      <c r="AQ21" s="8"/>
-    </row>
-    <row r="22" spans="1:43">
-      <c r="A22" s="9"/>
-      <c r="AQ22" s="8"/>
-    </row>
-    <row r="23" spans="1:43">
-      <c r="A23" s="9"/>
-      <c r="AQ23" s="8"/>
-    </row>
-    <row r="24" spans="1:43">
-      <c r="A24" s="9"/>
-      <c r="AQ24" s="8"/>
-    </row>
-    <row r="25" spans="1:43">
-      <c r="A25" s="9"/>
-      <c r="AQ25" s="8"/>
-    </row>
-    <row r="26" spans="1:43">
-      <c r="A26" s="9"/>
-      <c r="AQ26" s="8"/>
-    </row>
-    <row r="27" spans="1:43">
-      <c r="A27" s="9"/>
-      <c r="AQ27" s="8"/>
-    </row>
-    <row r="28" spans="1:43">
-      <c r="A28" s="9"/>
-      <c r="AQ28" s="8"/>
-    </row>
-    <row r="29" spans="1:43">
-      <c r="A29" s="9"/>
-      <c r="AQ29" s="8"/>
-    </row>
-    <row r="30" spans="1:43">
-      <c r="A30" s="9"/>
-      <c r="AQ30" s="8"/>
-    </row>
-    <row r="31" spans="1:43">
-      <c r="A31" s="9"/>
-      <c r="AQ31" s="8"/>
-    </row>
-    <row r="32" spans="1:43">
-      <c r="A32" s="9"/>
-      <c r="AQ32" s="8"/>
-    </row>
-    <row r="33" spans="1:43">
-      <c r="A33" s="9"/>
-      <c r="AQ33" s="8"/>
-    </row>
-    <row r="34" spans="1:43">
-      <c r="A34" s="9"/>
-      <c r="AQ34" s="8"/>
-    </row>
-    <row r="35" spans="1:43">
-      <c r="A35" s="9"/>
-      <c r="AQ35" s="8"/>
-    </row>
-    <row r="36" spans="1:43">
-      <c r="A36" s="9"/>
-      <c r="AQ36" s="8"/>
-    </row>
-    <row r="37" spans="1:43">
-      <c r="A37" s="9"/>
-      <c r="AQ37" s="8"/>
-    </row>
-    <row r="38" spans="1:43">
-      <c r="A38" s="9"/>
-      <c r="AQ38" s="8"/>
-    </row>
-    <row r="39" spans="1:43">
-      <c r="A39" s="9"/>
-      <c r="AQ39" s="8"/>
-    </row>
-    <row r="40" spans="1:43">
-      <c r="A40" s="9"/>
-      <c r="AQ40" s="8"/>
-    </row>
-    <row r="41" spans="1:43">
-      <c r="A41" s="13"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="3"/>
-      <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
-      <c r="AA41" s="3"/>
-      <c r="AB41" s="3"/>
-      <c r="AC41" s="3"/>
-      <c r="AD41" s="3"/>
-      <c r="AE41" s="3"/>
-      <c r="AF41" s="3"/>
-      <c r="AG41" s="3"/>
-      <c r="AH41" s="3"/>
-      <c r="AI41" s="3"/>
-      <c r="AJ41" s="3"/>
-      <c r="AK41" s="3"/>
-      <c r="AL41" s="3"/>
-      <c r="AM41" s="3"/>
-      <c r="AN41" s="3"/>
-      <c r="AO41" s="3"/>
-      <c r="AP41" s="3"/>
-      <c r="AQ41" s="14"/>
-    </row>
-    <row r="42" spans="1:43">
-      <c r="A42" s="9"/>
-      <c r="AQ42" s="8"/>
-    </row>
-    <row r="43" spans="1:43">
-      <c r="A43" s="9"/>
-      <c r="AQ43" s="8"/>
-    </row>
-    <row r="44" spans="1:43">
-      <c r="A44" s="9"/>
-      <c r="AQ44" s="8"/>
-    </row>
-    <row r="45" spans="1:43">
-      <c r="A45" s="9"/>
-      <c r="AQ45" s="8"/>
-    </row>
-    <row r="46" spans="1:43">
-      <c r="A46" s="9"/>
-      <c r="AQ46" s="8"/>
-    </row>
-    <row r="47" spans="1:43">
-      <c r="A47" s="9"/>
-      <c r="AQ47" s="8"/>
-    </row>
-    <row r="48" spans="1:43">
-      <c r="A48" s="9"/>
-      <c r="AQ48" s="8"/>
-    </row>
-    <row r="49" spans="1:43">
-      <c r="A49" s="9"/>
-      <c r="AQ49" s="8"/>
-    </row>
-    <row r="50" spans="1:43">
-      <c r="A50" s="9"/>
-      <c r="AQ50" s="8"/>
-    </row>
-    <row r="51" spans="1:43">
-      <c r="A51" s="9"/>
-      <c r="AQ51" s="8"/>
-    </row>
-    <row r="52" spans="1:43">
-      <c r="A52" s="9"/>
-      <c r="AQ52" s="8"/>
-    </row>
-    <row r="53" spans="1:43">
-      <c r="A53" s="9"/>
-      <c r="AQ53" s="8"/>
-    </row>
-    <row r="54" spans="1:43">
-      <c r="A54" s="9"/>
-      <c r="AQ54" s="8"/>
-    </row>
-    <row r="55" spans="1:43">
-      <c r="A55" s="9"/>
-      <c r="AQ55" s="8"/>
-    </row>
-    <row r="56" spans="1:43">
-      <c r="A56" s="9"/>
-      <c r="AQ56" s="8"/>
-    </row>
-    <row r="57" spans="1:43">
-      <c r="A57" s="9"/>
-      <c r="AQ57" s="8"/>
-    </row>
-    <row r="58" spans="1:43">
-      <c r="A58" s="9"/>
-      <c r="AQ58" s="8"/>
-    </row>
-    <row r="59" spans="1:43">
-      <c r="A59" s="9"/>
-      <c r="AQ59" s="8"/>
-    </row>
-    <row r="60" spans="1:43">
-      <c r="A60" s="9"/>
-      <c r="AQ60" s="8"/>
-    </row>
-    <row r="61" spans="1:43">
-      <c r="A61" s="9"/>
-      <c r="AQ61" s="8"/>
-    </row>
-    <row r="62" spans="1:43" ht="19.5" thickBot="1">
-      <c r="A62" s="10"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
-      <c r="M62" s="11"/>
-      <c r="N62" s="11"/>
-      <c r="O62" s="11"/>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="11"/>
-      <c r="R62" s="11"/>
-      <c r="S62" s="11"/>
-      <c r="T62" s="11"/>
-      <c r="U62" s="11"/>
-      <c r="V62" s="11"/>
-      <c r="W62" s="11"/>
-      <c r="X62" s="11"/>
-      <c r="Y62" s="11"/>
-      <c r="Z62" s="11"/>
-      <c r="AA62" s="11"/>
-      <c r="AB62" s="11"/>
-      <c r="AC62" s="11"/>
-      <c r="AD62" s="11"/>
-      <c r="AE62" s="11"/>
-      <c r="AF62" s="11"/>
-      <c r="AG62" s="11"/>
-      <c r="AH62" s="11"/>
-      <c r="AI62" s="11"/>
-      <c r="AJ62" s="11"/>
-      <c r="AK62" s="11"/>
-      <c r="AL62" s="11"/>
-      <c r="AM62" s="11"/>
-      <c r="AN62" s="11"/>
-      <c r="AO62" s="11"/>
-      <c r="AP62" s="11"/>
-      <c r="AQ62" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="17">
     <mergeCell ref="A5:D8"/>
     <mergeCell ref="A11:AQ11"/>
     <mergeCell ref="AK1:AQ1"/>
@@ -14623,12 +13673,10 @@
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC1:AH1"/>
     <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -14645,172 +13693,172 @@
       <selection sqref="A1:L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="4.19921875" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:43">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="47" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47" t="s">
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47" t="s">
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="46">
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="49">
         <v>44365</v>
       </c>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="47" t="s">
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="46">
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="49">
         <v>44365</v>
       </c>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="47"/>
-      <c r="AQ1" s="48"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="50"/>
+      <c r="AO1" s="50"/>
+      <c r="AP1" s="50"/>
+      <c r="AQ1" s="51"/>
     </row>
     <row r="2" spans="1:43">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="49" t="s">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49" t="s">
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49" t="s">
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="50">
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="53">
         <v>44365</v>
       </c>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49" t="s">
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="50">
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="53">
         <v>44365</v>
       </c>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="49"/>
-      <c r="AP2" s="49"/>
-      <c r="AQ2" s="51"/>
-    </row>
-    <row r="3" spans="1:43" ht="19.5" thickBot="1">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="52" t="s">
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="52"/>
+      <c r="AQ2" s="54"/>
+    </row>
+    <row r="3" spans="1:43" ht="18.600000000000001" thickBot="1">
+      <c r="A3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="52"/>
-      <c r="AH3" s="52"/>
-      <c r="AI3" s="52"/>
-      <c r="AJ3" s="52"/>
-      <c r="AK3" s="52"/>
-      <c r="AL3" s="52"/>
-      <c r="AM3" s="52"/>
-      <c r="AN3" s="52"/>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="52"/>
-      <c r="AQ3" s="53"/>
-    </row>
-    <row r="4" spans="1:43" ht="20.25" thickTop="1" thickBot="1">
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="47"/>
+      <c r="AE3" s="47"/>
+      <c r="AF3" s="47"/>
+      <c r="AG3" s="47"/>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="47"/>
+      <c r="AK3" s="47"/>
+      <c r="AL3" s="47"/>
+      <c r="AM3" s="47"/>
+      <c r="AN3" s="47"/>
+      <c r="AO3" s="47"/>
+      <c r="AP3" s="47"/>
+      <c r="AQ3" s="48"/>
+    </row>
+    <row r="4" spans="1:43" ht="19.2" thickTop="1" thickBot="1">
       <c r="A4" s="9"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -14856,12 +13904,12 @@
       <c r="AQ4" s="8"/>
     </row>
     <row r="5" spans="1:43">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -14903,10 +13951,10 @@
       <c r="AQ5" s="7"/>
     </row>
     <row r="6" spans="1:43">
-      <c r="A6" s="26"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -14950,10 +13998,10 @@
       <c r="AQ6" s="8"/>
     </row>
     <row r="7" spans="1:43">
-      <c r="A7" s="26"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -14997,10 +14045,10 @@
       <c r="AQ7" s="8"/>
     </row>
     <row r="8" spans="1:43">
-      <c r="A8" s="29"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -15090,7 +14138,7 @@
       <c r="AP9" s="2"/>
       <c r="AQ9" s="8"/>
     </row>
-    <row r="10" spans="1:43" ht="19.5" thickBot="1">
+    <row r="10" spans="1:43" ht="18.600000000000001" thickBot="1">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -15136,51 +14184,51 @@
       <c r="AQ10" s="12"/>
     </row>
     <row r="11" spans="1:43">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="21"/>
-      <c r="AA11" s="21"/>
-      <c r="AB11" s="21"/>
-      <c r="AC11" s="21"/>
-      <c r="AD11" s="21"/>
-      <c r="AE11" s="21"/>
-      <c r="AF11" s="21"/>
-      <c r="AG11" s="21"/>
-      <c r="AH11" s="21"/>
-      <c r="AI11" s="21"/>
-      <c r="AJ11" s="21"/>
-      <c r="AK11" s="21"/>
-      <c r="AL11" s="21"/>
-      <c r="AM11" s="21"/>
-      <c r="AN11" s="21"/>
-      <c r="AO11" s="21"/>
-      <c r="AP11" s="21"/>
-      <c r="AQ11" s="22"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="24"/>
+      <c r="AD11" s="24"/>
+      <c r="AE11" s="24"/>
+      <c r="AF11" s="24"/>
+      <c r="AG11" s="24"/>
+      <c r="AH11" s="24"/>
+      <c r="AI11" s="24"/>
+      <c r="AJ11" s="24"/>
+      <c r="AK11" s="24"/>
+      <c r="AL11" s="24"/>
+      <c r="AM11" s="24"/>
+      <c r="AN11" s="24"/>
+      <c r="AO11" s="24"/>
+      <c r="AP11" s="24"/>
+      <c r="AQ11" s="25"/>
     </row>
     <row r="12" spans="1:43">
       <c r="A12" s="9"/>
@@ -16442,7 +15490,7 @@
       <c r="AP39" s="2"/>
       <c r="AQ39" s="8"/>
     </row>
-    <row r="40" spans="1:43" ht="19.5" thickBot="1">
+    <row r="40" spans="1:43" ht="18.600000000000001" thickBot="1">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -16489,6 +15537,8 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:AQ3"/>
     <mergeCell ref="A5:D8"/>
     <mergeCell ref="A11:AQ11"/>
     <mergeCell ref="AK1:AQ1"/>
@@ -16504,12 +15554,10 @@
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC1:AH1"/>
     <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -16522,7 +15570,7 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
